--- a/PointBuilder.xlsx
+++ b/PointBuilder.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,50 +367,258 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>-159.6774193548387</v>
+        <v>-209.2741935483871</v>
       </c>
       <c r="B2">
-        <v>132.1428571428572</v>
+        <v>158.1168831168832</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>140.3225806451613</v>
+        <v>3.629032258064569</v>
       </c>
       <c r="B3">
-        <v>122.4025974025975</v>
+        <v>-22.07792207792204</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>171.7741935483872</v>
+        <v>151.2096774193549</v>
       </c>
       <c r="B4">
-        <v>-134.0909090909091</v>
+        <v>153.2467532467533</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>-31.45161290322579</v>
+        <v>108.8709677419355</v>
       </c>
       <c r="B5">
-        <v>-166.5584415584415</v>
+        <v>-109.7402597402597</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>-191.1290322580645</v>
+        <v>-198.3870967741935</v>
       </c>
       <c r="B6">
-        <v>-48.05194805194805</v>
+        <v>-119.4805194805194</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>-20.5645161290322</v>
+        <v>-152.4193548387096</v>
       </c>
       <c r="B7">
-        <v>128.896103896104</v>
+        <v>13.63636363636368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>-60.48387096774189</v>
+      </c>
+      <c r="B8">
+        <v>198.7012987012988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>-9.677419354838662</v>
+      </c>
+      <c r="B9">
+        <v>-171.4285714285714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>117.3387096774194</v>
+      </c>
+      <c r="B10">
+        <v>-39.93506493506487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>234.6774193548388</v>
+      </c>
+      <c r="B11">
+        <v>-54.5454545454545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>234.6774193548388</v>
+      </c>
+      <c r="B12">
+        <v>-54.5454545454545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>234.6774193548388</v>
+      </c>
+      <c r="B13">
+        <v>42.85714285714289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>234.6774193548388</v>
+      </c>
+      <c r="B14">
+        <v>42.85714285714289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>211.6935483870968</v>
+      </c>
+      <c r="B15">
+        <v>130.5194805194806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>211.6935483870968</v>
+      </c>
+      <c r="B16">
+        <v>130.5194805194806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>182.6612903225807</v>
+      </c>
+      <c r="B17">
+        <v>60.71428571428578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>147.5806451612904</v>
+      </c>
+      <c r="B18">
+        <v>85.06493506493513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>228.6290322580645</v>
+      </c>
+      <c r="B19">
+        <v>78.57142857142861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>228.6290322580645</v>
+      </c>
+      <c r="B20">
+        <v>78.57142857142861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>227.4193548387098</v>
+      </c>
+      <c r="B21">
+        <v>78.57142857142861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>222.5806451612904</v>
+      </c>
+      <c r="B22">
+        <v>73.70129870129875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B23">
+        <v>75.32467532467535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B24">
+        <v>75.32467532467535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B25">
+        <v>75.32467532467535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B26">
+        <v>75.32467532467535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B27">
+        <v>75.32467532467535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B28">
+        <v>75.32467532467535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B29">
+        <v>75.32467532467535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B30">
+        <v>75.32467532467535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B31">
+        <v>75.32467532467535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B32">
+        <v>75.32467532467535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>229.8387096774194</v>
+      </c>
+      <c r="B33">
+        <v>75.32467532467535</v>
       </c>
     </row>
   </sheetData>
